--- a/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD8AFA2-BF80-4963-924B-B93C310E4F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6AEE8C-8DAC-4A3C-BB67-7211CC449355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{713D7213-02A2-449E-B611-610DFBD13367}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35EEC968-F44C-48E8-A2CD-8C846AA40ACE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -104,28 +104,28 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -134,28 +134,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>De acuerdo</t>
@@ -164,28 +164,28 @@
     <t>35,81%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>Muy de acuerdo</t>
@@ -194,10 +194,10 @@
     <t>24,54%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>18,61%</t>
@@ -206,7 +206,7 @@
     <t>16,31%</t>
   </si>
   <si>
-    <t>21,65%</t>
+    <t>21,51%</t>
   </si>
   <si>
     <t>20,95%</t>
@@ -215,7 +215,7 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>23,31%</t>
+    <t>23,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,37 +227,34 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -266,40 +263,37 @@
     <t>3,59%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>13,07%</t>
@@ -308,55 +302,55 @@
     <t>46,45%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>49,71%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
   </si>
   <si>
     <t>48,11%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -365,193 +359,196 @@
     <t>1,69%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
   </si>
   <si>
     <t>9,47%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>10,54%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>46,54%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
   </si>
   <si>
     <t>39,67%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>2,91%</t>
   </si>
   <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>5,93%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>15,13%</t>
@@ -560,67 +557,67 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>14,81%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>41,57%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>35,27%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1035,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEECF693-7A7B-4899-B11C-FB7575AD7F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4CA8FE-C2D6-48FB-BFEF-508F216AE4EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1515,7 +1512,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>95862</v>
+        <v>95861</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1524,7 +1521,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -1533,13 +1530,13 @@
         <v>100526</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -1548,13 +1545,13 @@
         <v>196388</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1569,13 +1566,13 @@
         <v>244961</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>409</v>
@@ -1584,13 +1581,13 @@
         <v>286572</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>664</v>
@@ -1599,13 +1596,13 @@
         <v>531532</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,16 +1614,16 @@
         <v>997</v>
       </c>
       <c r="D13" s="7">
-        <v>1003413</v>
+        <v>1003412</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1459</v>
@@ -1635,13 +1632,13 @@
         <v>1117061</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2456</v>
@@ -1650,13 +1647,13 @@
         <v>2120474</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1668,13 @@
         <v>786178</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>849</v>
@@ -1686,13 +1683,13 @@
         <v>703612</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1450</v>
@@ -1701,13 +1698,13 @@
         <v>1489790</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1716,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160320</v>
+        <v>2160319</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1772,13 @@
         <v>11351</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1790,13 +1787,13 @@
         <v>5609</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -1805,13 +1802,13 @@
         <v>16960</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1823,13 @@
         <v>15154</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -1841,13 +1838,13 @@
         <v>20230</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -1856,13 +1853,13 @@
         <v>35384</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1874,13 @@
         <v>63756</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -1892,13 +1889,13 @@
         <v>75262</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -1907,13 +1904,13 @@
         <v>139019</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>312015</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -1943,13 +1940,13 @@
         <v>333394</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>845</v>
@@ -1958,13 +1955,13 @@
         <v>645409</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1976,13 @@
         <v>270763</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -1994,13 +1991,13 @@
         <v>279391</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>611</v>
@@ -2009,13 +2006,13 @@
         <v>550155</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2080,13 @@
         <v>69952</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>153</v>
@@ -2098,13 +2095,13 @@
         <v>91749</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>234</v>
@@ -2113,10 +2110,10 @@
         <v>161701</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>159</v>
@@ -2137,10 +2134,10 @@
         <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -2149,13 +2146,13 @@
         <v>250397</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>614</v>
@@ -2164,13 +2161,13 @@
         <v>426718</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>427920</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>891</v>
@@ -2200,13 +2197,13 @@
         <v>572791</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1383</v>
@@ -2215,10 +2212,10 @@
         <v>1000711</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>176</v>
@@ -2242,7 +2239,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>2430</v>
@@ -2251,13 +2248,13 @@
         <v>1735218</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>4006</v>
@@ -2266,13 +2263,13 @@
         <v>3243183</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2284,13 @@
         <v>1188906</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>1454</v>
@@ -2302,13 +2299,13 @@
         <v>1136691</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>2453</v>
@@ -2317,13 +2314,13 @@
         <v>2325597</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2376,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E6AEE8C-8DAC-4A3C-BB67-7211CC449355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EA7D66-3396-4FC7-BFA4-02A07FACED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{35EEC968-F44C-48E8-A2CD-8C846AA40ACE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A97A3CB-DDA2-4ACC-9882-6C5614634A4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4CA8FE-C2D6-48FB-BFEF-508F216AE4EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88717CA-1D28-44BF-91D2-E434D0F6C223}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EA7D66-3396-4FC7-BFA4-02A07FACED1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156A05A0-702F-4D57-9A94-56CAD0A99074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2A97A3CB-DDA2-4ACC-9882-6C5614634A4D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66226BBD-3E34-4273-A501-52ADCD1590A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
@@ -104,28 +104,28 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -134,28 +134,28 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>De acuerdo</t>
@@ -164,28 +164,28 @@
     <t>35,81%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>Muy de acuerdo</t>
@@ -194,10 +194,10 @@
     <t>24,54%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>18,61%</t>
@@ -206,7 +206,7 @@
     <t>16,31%</t>
   </si>
   <si>
-    <t>21,51%</t>
+    <t>21,65%</t>
   </si>
   <si>
     <t>20,95%</t>
@@ -215,7 +215,7 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>23,13%</t>
+    <t>23,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,328 +227,331 @@
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>15,13%</t>
@@ -557,67 +560,67 @@
     <t>13,55%</t>
   </si>
   <si>
-    <t>16,26%</t>
+    <t>16,23%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>14,81%</t>
   </si>
   <si>
     <t>44,73%</t>
   </si>
   <si>
-    <t>41,57%</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
   <si>
     <t>35,27%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>32,49%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1032,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88717CA-1D28-44BF-91D2-E434D0F6C223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD1DE1E-5BAD-429E-8E2D-CCC3A0BB899D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1512,7 +1515,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>95861</v>
+        <v>95862</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1521,7 +1524,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -1530,13 +1533,13 @@
         <v>100526</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>254</v>
@@ -1545,13 +1548,13 @@
         <v>196388</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,13 +1569,13 @@
         <v>244961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>409</v>
@@ -1581,13 +1584,13 @@
         <v>286572</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>664</v>
@@ -1596,13 +1599,13 @@
         <v>531532</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,16 +1617,16 @@
         <v>997</v>
       </c>
       <c r="D13" s="7">
-        <v>1003412</v>
+        <v>1003413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>1459</v>
@@ -1632,13 +1635,13 @@
         <v>1117061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>2456</v>
@@ -1647,13 +1650,13 @@
         <v>2120474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1671,13 @@
         <v>786178</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>849</v>
@@ -1683,13 +1686,13 @@
         <v>703612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>1450</v>
@@ -1698,13 +1701,13 @@
         <v>1489790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1719,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160319</v>
+        <v>2160320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1772,13 +1775,13 @@
         <v>11351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1787,13 +1790,13 @@
         <v>5609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -1802,13 +1805,13 @@
         <v>16960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,13 +1826,13 @@
         <v>15154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -1838,13 +1841,13 @@
         <v>20230</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -1853,13 +1856,13 @@
         <v>35384</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1877,13 @@
         <v>63756</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
@@ -1889,13 +1892,13 @@
         <v>75262</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
@@ -1904,13 +1907,13 @@
         <v>139019</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1928,13 @@
         <v>312015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -1940,13 +1943,13 @@
         <v>333394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>845</v>
@@ -1955,13 +1958,13 @@
         <v>645409</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,13 +1979,13 @@
         <v>270763</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -1991,13 +1994,13 @@
         <v>279391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>611</v>
@@ -2006,13 +2009,13 @@
         <v>550155</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2083,13 @@
         <v>69952</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>153</v>
@@ -2095,13 +2098,13 @@
         <v>91749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>234</v>
@@ -2110,10 +2113,10 @@
         <v>161701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>159</v>
@@ -2134,10 +2137,10 @@
         <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
@@ -2146,13 +2149,13 @@
         <v>250397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>614</v>
@@ -2161,13 +2164,13 @@
         <v>426718</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,13 +2185,13 @@
         <v>427920</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>891</v>
@@ -2197,13 +2200,13 @@
         <v>572791</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>1383</v>
@@ -2212,10 +2215,10 @@
         <v>1000711</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>176</v>
@@ -2239,7 +2242,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>2430</v>
@@ -2248,13 +2251,13 @@
         <v>1735218</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>4006</v>
@@ -2263,13 +2266,13 @@
         <v>3243183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2287,13 @@
         <v>1188906</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>1454</v>
@@ -2299,13 +2302,13 @@
         <v>1136691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>2453</v>
@@ -2314,13 +2317,13 @@
         <v>2325597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156A05A0-702F-4D57-9A94-56CAD0A99074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29447121-410F-4D34-BE52-9DDAEEA879DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66226BBD-3E34-4273-A501-52ADCD1590A4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{641025C1-B275-445B-B559-4DD86C2B6C99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según si ha sido optimista respecto a su futuro en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -74,148 +74,148 @@
     <t>5,34%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>En desacuerdo</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>De acuerdo</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>Muy de acuerdo</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,403 +224,391 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1035,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD1DE1E-5BAD-429E-8E2D-CCC3A0BB899D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C4AB26-F5DD-4780-BDF3-D1DC3045CFDA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1156,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>28694</v>
+        <v>27281</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1171,7 +1159,7 @@
         <v>92</v>
       </c>
       <c r="I4" s="7">
-        <v>46679</v>
+        <v>42731</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1186,7 +1174,7 @@
         <v>132</v>
       </c>
       <c r="N4" s="7">
-        <v>75373</v>
+        <v>70012</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1207,7 +1195,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="7">
-        <v>65306</v>
+        <v>60314</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1222,7 +1210,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="7">
-        <v>129640</v>
+        <v>114846</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1237,7 +1225,7 @@
         <v>319</v>
       </c>
       <c r="N5" s="7">
-        <v>194946</v>
+        <v>175160</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1258,7 +1246,7 @@
         <v>164</v>
       </c>
       <c r="D6" s="7">
-        <v>119203</v>
+        <v>111602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1273,7 +1261,7 @@
         <v>386</v>
       </c>
       <c r="I6" s="7">
-        <v>210957</v>
+        <v>191197</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1288,7 +1276,7 @@
         <v>550</v>
       </c>
       <c r="N6" s="7">
-        <v>330160</v>
+        <v>302799</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1309,7 +1297,7 @@
         <v>236</v>
       </c>
       <c r="D7" s="7">
-        <v>192538</v>
+        <v>186185</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1324,7 +1312,7 @@
         <v>469</v>
       </c>
       <c r="I7" s="7">
-        <v>284764</v>
+        <v>258202</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1339,7 +1327,7 @@
         <v>705</v>
       </c>
       <c r="N7" s="7">
-        <v>477302</v>
+        <v>444387</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1360,7 +1348,7 @@
         <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>131965</v>
+        <v>125895</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1375,7 +1363,7 @@
         <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>153687</v>
+        <v>139592</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1390,7 +1378,7 @@
         <v>392</v>
       </c>
       <c r="N8" s="7">
-        <v>285652</v>
+        <v>265487</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1411,7 +1399,7 @@
         <v>686</v>
       </c>
       <c r="D9" s="7">
-        <v>537706</v>
+        <v>511277</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1426,7 +1414,7 @@
         <v>1412</v>
       </c>
       <c r="I9" s="7">
-        <v>825727</v>
+        <v>746569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1441,7 +1429,7 @@
         <v>2098</v>
       </c>
       <c r="N9" s="7">
-        <v>1363433</v>
+        <v>1257846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1464,7 +1452,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>29907</v>
+        <v>27389</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1479,7 +1467,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>39461</v>
+        <v>35670</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -1494,7 +1482,7 @@
         <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>69368</v>
+        <v>63058</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -1515,7 +1503,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>95862</v>
+        <v>90343</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -1530,7 +1518,7 @@
         <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>100526</v>
+        <v>92405</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -1545,7 +1533,7 @@
         <v>254</v>
       </c>
       <c r="N11" s="7">
-        <v>196388</v>
+        <v>182747</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -1566,7 +1554,7 @@
         <v>255</v>
       </c>
       <c r="D12" s="7">
-        <v>244961</v>
+        <v>231578</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -1581,7 +1569,7 @@
         <v>409</v>
       </c>
       <c r="I12" s="7">
-        <v>286572</v>
+        <v>258922</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -1596,7 +1584,7 @@
         <v>664</v>
       </c>
       <c r="N12" s="7">
-        <v>531532</v>
+        <v>490500</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -1617,7 +1605,7 @@
         <v>997</v>
       </c>
       <c r="D13" s="7">
-        <v>1003413</v>
+        <v>983066</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -1632,7 +1620,7 @@
         <v>1459</v>
       </c>
       <c r="I13" s="7">
-        <v>1117061</v>
+        <v>1154028</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -1647,7 +1635,7 @@
         <v>2456</v>
       </c>
       <c r="N13" s="7">
-        <v>2120474</v>
+        <v>2137093</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -1668,7 +1656,7 @@
         <v>601</v>
       </c>
       <c r="D14" s="7">
-        <v>786178</v>
+        <v>956314</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -1683,7 +1671,7 @@
         <v>849</v>
       </c>
       <c r="I14" s="7">
-        <v>703612</v>
+        <v>694626</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -1698,7 +1686,7 @@
         <v>1450</v>
       </c>
       <c r="N14" s="7">
-        <v>1489790</v>
+        <v>1650940</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -1719,7 +1707,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160320</v>
+        <v>2288690</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1734,7 +1722,7 @@
         <v>2917</v>
       </c>
       <c r="I15" s="7">
-        <v>2247232</v>
+        <v>2235650</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1749,7 +1737,7 @@
         <v>4907</v>
       </c>
       <c r="N15" s="7">
-        <v>4407552</v>
+        <v>4524339</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1772,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>11351</v>
+        <v>10604</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>108</v>
@@ -1787,31 +1775,31 @@
         <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>5609</v>
+        <v>5168</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
       </c>
       <c r="N16" s="7">
-        <v>16960</v>
+        <v>15772</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,46 +1811,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>15154</v>
+        <v>14613</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
       </c>
       <c r="I17" s="7">
-        <v>20230</v>
+        <v>18643</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>35384</v>
+        <v>33256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,46 +1862,46 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>63756</v>
+        <v>60058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>96</v>
       </c>
       <c r="I18" s="7">
-        <v>75262</v>
+        <v>68012</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>169</v>
       </c>
       <c r="N18" s="7">
-        <v>139019</v>
+        <v>128070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,46 +1913,46 @@
         <v>343</v>
       </c>
       <c r="D19" s="7">
-        <v>312015</v>
+        <v>299045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
       </c>
       <c r="I19" s="7">
-        <v>333394</v>
+        <v>312832</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>845</v>
       </c>
       <c r="N19" s="7">
-        <v>645409</v>
+        <v>611877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,46 +1964,46 @@
         <v>243</v>
       </c>
       <c r="D20" s="7">
-        <v>270763</v>
+        <v>262303</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
       </c>
       <c r="I20" s="7">
-        <v>279391</v>
+        <v>255808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>611</v>
       </c>
       <c r="N20" s="7">
-        <v>550155</v>
+        <v>518112</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2015,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2042,7 +2030,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2057,7 +2045,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2080,46 +2068,46 @@
         <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>69952</v>
+        <v>65273</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>153</v>
       </c>
       <c r="I22" s="7">
-        <v>91749</v>
+        <v>83569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>234</v>
       </c>
       <c r="N22" s="7">
-        <v>161701</v>
+        <v>148842</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,46 +2119,46 @@
         <v>209</v>
       </c>
       <c r="D23" s="7">
-        <v>176321</v>
+        <v>165270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>405</v>
       </c>
       <c r="I23" s="7">
-        <v>250397</v>
+        <v>225894</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>614</v>
       </c>
       <c r="N23" s="7">
-        <v>426718</v>
+        <v>391163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,46 +2170,46 @@
         <v>492</v>
       </c>
       <c r="D24" s="7">
-        <v>427920</v>
+        <v>403238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>891</v>
       </c>
       <c r="I24" s="7">
-        <v>572791</v>
+        <v>518131</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>1383</v>
       </c>
       <c r="N24" s="7">
-        <v>1000711</v>
+        <v>921369</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,46 +2221,46 @@
         <v>1576</v>
       </c>
       <c r="D25" s="7">
-        <v>1507965</v>
+        <v>1468296</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>2430</v>
       </c>
       <c r="I25" s="7">
-        <v>1735218</v>
+        <v>1725061</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>4006</v>
       </c>
       <c r="N25" s="7">
-        <v>3243183</v>
+        <v>3193357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,46 +2272,46 @@
         <v>999</v>
       </c>
       <c r="D26" s="7">
-        <v>1188906</v>
+        <v>1344513</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>1454</v>
       </c>
       <c r="I26" s="7">
-        <v>1136691</v>
+        <v>1090026</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>2453</v>
       </c>
       <c r="N26" s="7">
-        <v>2325597</v>
+        <v>2434539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2323,7 @@
         <v>3357</v>
       </c>
       <c r="D27" s="7">
-        <v>3371064</v>
+        <v>3446590</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2350,7 +2338,7 @@
         <v>5333</v>
       </c>
       <c r="I27" s="7">
-        <v>3786845</v>
+        <v>3642681</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2365,7 +2353,7 @@
         <v>8690</v>
       </c>
       <c r="N27" s="7">
-        <v>7157910</v>
+        <v>7089271</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2379,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
